--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -1970,6 +1970,21 @@
           <t>introspect_done</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3705,7 +3720,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.balgas_choice,1</t>
+          <t>chitsii.arena.player.balgas_choice,0</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K228"/>
+  <dimension ref="A1:K266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,14 +914,14 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>scene2_lily_prayer</t>
+          <t>scene1_5_flashback</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>scene2_lily_prayer</t>
+          <t>scene1_5_flashback</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
@@ -945,17 +945,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>narr_fb1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>（リリィが震える手で水晶を握りしめている。）</t>
+          <t>（——35年前、ティリス世界。）</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>（リリィが震える手で水晶を握りしめている。）</t>
+          <t>（——35年前、ティリス世界。）</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>narr_fb2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
+          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
+          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
     </row>
@@ -1001,133 +1001,173 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>balgas_fb1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>narr_fb3</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>kain_fb1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
+          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
+          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>balgas_fb2</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
-        </is>
-      </c>
-    </row>
     <row r="47">
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>narr_fb4</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="F48" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>kain_fb2</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>balgas_fb3</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
         </is>
       </c>
     </row>
@@ -1139,31 +1179,51 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>kain_fb3</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
+          <t>……分かりました。俺がしんがりを務めます。</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
+          <t>……分かりました。俺がしんがりを務めます。</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>scene3_battle</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>balgas_fb4</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>scene3_battle</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1175,41 +1235,36 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Balgas_Prime");             var data = SoundManager.current.GetData("BGM/Battle_Balgas_Prime");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Balgas_Prime");             }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>narr_fb5</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
     </row>
@@ -1221,51 +1276,61 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>kain_fb4</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
+          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
+          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>narr_fb6</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>balgas_fb5</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
+          <t>馬鹿野郎……！ お前を置いていけるか……！ お前は俺の……！</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
+          <t>馬鹿野郎……！ お前を置いていけるか……！ お前は俺の……！</t>
         </is>
       </c>
     </row>
@@ -1277,58 +1342,48 @@
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>narr_fb7</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>obs_1</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>「殺せ！ 師匠を殺せ！」</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>「殺せ！ 師匠を殺せ！」</t>
-        </is>
-      </c>
-    </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>obs_2</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>「英雄の魂を捧げろ！」</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>「英雄の魂を捧げろ！」</t>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
@@ -1340,17 +1395,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>obs_3</t>
+          <t>narr_fb8</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>「屠竜者となる儀式だ！」</t>
+          <t>（——回想が終わり、現在に戻る。）</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>「屠竜者となる儀式だ！」</t>
+          <t>（——回想が終わり、現在に戻る。）</t>
         </is>
       </c>
     </row>
@@ -1367,171 +1422,176 @@
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>lily_voice</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>balgas_fb6</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>balgas_fb7</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>balgas_fb8</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>scene2_lily_prayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>scene2_lily_prayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バルガス最終戦 - HP25%未満で一定ターン耐える");</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>scene4_refusal</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>scene4_refusal</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>（リリィが震える手で水晶を握りしめている。）</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>（リリィが震える手で水晶を握りしめている。）</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1603,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -1555,17 +1615,17 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>obs_void</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+          <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+          <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
         </is>
       </c>
     </row>
@@ -1577,29 +1637,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -1611,489 +1661,484 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="D83" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
-        </is>
-      </c>
-    </row>
     <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>choice4</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>react4_philosophy</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>c4_philosophy</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>react4_rule</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>c4_rule</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+          <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+          <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>react4_hand</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>c4_hand</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>（無言で手を差し伸べる）</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>（無言で手を差し伸べる）</t>
+          <t>scene3_battle</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>react4_philosophy</t>
+          <t>scene3_battle</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ……。</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ……。</t>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Balgas_Prime");             var data = SoundManager.current.GetData("BGM/Battle_Balgas_Prime");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Balgas_Prime");             }</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>react4_rule</t>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
+          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
+          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>react4_hand</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>obs_1</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>「殺せ！ 師匠を殺せ！」</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>「殺せ！ 師匠を殺せ！」</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>introspect_greed</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>obs_2</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>「英雄の魂を捧げろ！」</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>「英雄の魂を捧げろ！」</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>obs_3</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>「屠竜者となる儀式だ！」</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>「屠竜者となる儀式だ！」</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==3)</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>lily_voice</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>introspect_greed</t>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バルガス最終戦 - HP25%未満で一定ターン耐える");</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>intro_greed</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>scene4_refusal</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>scene4_refusal</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>intro_greed2</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>intro_greed3</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
-        </is>
-      </c>
-    </row>
     <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2105,459 +2150,504 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>intro_battle</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="D114" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>intro_battle2</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
-        </is>
-      </c>
-    </row>
     <row r="116">
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>obs_void</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>intro_battle3</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>intro_void</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="D121" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>intro_void2</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>intro_void3</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>choice4</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>introspect_done</t>
+          <t>react4_philosophy</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>c4_philosophy</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>react4_rule</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>c4_rule</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>react4_hand</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>intro_pride</t>
+          <t>c4_hand</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+          <t>（無言で手を差し伸べる）</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+          <t>（無言で手を差し伸べる）</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>react4_philosophy</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="F129" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>intro_pride2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+          <t>……ハッ。甘っちょろい野郎だ……。</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+          <t>……ハッ。甘っちょろい野郎だ……。</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>introspection</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>intro_pride3</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>react4_rule</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="inlineStr">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>react4_hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>introspect_greed</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>introspect_battle</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>introspect_void</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>introspect_pride</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==3)</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>scene5_bonds</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>scene5_bonds</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
       <c r="D142" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>introspect_greed</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>intro_greed</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
         </is>
       </c>
     </row>
@@ -2569,99 +2659,99 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>intro_greed2</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>intro_greed3</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>introspect_battle</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="F151" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>balgas_8</t>
+          <t>intro_battle</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
     </row>
@@ -2673,29 +2763,29 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="F153" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>balgas_9</t>
+          <t>intro_battle2</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2797,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2719,416 +2809,391 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>narr_20</t>
+          <t>intro_battle3</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>introspect_void</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>intro_void</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>intro_void2</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
     <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>reward_choice</t>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>intro_void3</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>reward_sword</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>c_reward_sword</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>バルガスの剣の欠片を頼む</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>バルガスの剣の欠片を頼む</t>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>c_reward_ether</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>introspect_pride</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>c_reward_mana</t>
+          <t>intro_pride</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>魔力の結晶を選ぶ</t>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>魔力の結晶を選ぶ</t>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>reward_sword</t>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>lily_rew1</t>
+          <t>intro_pride2</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="D168" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>intro_pride3</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>scene5_bonds</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>scene5_bonds</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>lily_rew3</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="D176" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="D181" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
@@ -3145,582 +3210,607 @@
       </c>
     </row>
     <row r="184">
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="D185" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="D188" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-    </row>
     <row r="191">
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>balgas_9</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>narr_20</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="D195" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>narr_22</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
     <row r="197">
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>final_choice</t>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>final_human</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>c_final_human</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>俺は……まだ人間か？</t>
+          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>俺は……まだ人間か？</t>
+          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
+          <t>reward_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>reward_sword</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>c_final_nod</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>c_reward_sword</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
         </is>
       </c>
     </row>
     <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>reward_ether</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>0.3</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>c_reward_ether</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
         </is>
       </c>
     </row>
     <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>reward_mana</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>c_reward_mana</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>reward_sword</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>balgas_r4</t>
+          <t>lily_rew1</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>final_human</t>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>reward_ether</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>lily_rew2</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>『エーテルの欠片×1』、記録いたしました。</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>『エーテルの欠片×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="D210" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>balgas_r5</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>reward_mana</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>final_nod</t>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>lily_rew3</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="D214" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>balgas_r6</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
     <row r="220">
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,7</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="D221" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.balgas,100</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
-        </is>
-      </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>lily_8</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="D223" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.balgas_choice,0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -3732,68 +3822,614 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>sys_title</t>
+          <t>narr_21</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+          <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+          <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>【システム】バルガスの加護（永続）を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>【システム】バルガスの加護（永続）を獲得しました。</t>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="D226" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: 称号付与 - 状態異常耐性+30%, ピンチ時にバルガス加勢");</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="D227" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>narr_22</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>final_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>c_final_human</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>c_final_nod</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>balgas_r4</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>balgas_r5</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>balgas_r6</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_choice,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>【システム】バルガスの加護（永続）を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>【システム】バルガスの加護（永続）を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="D264" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: 称号付与 - 状態異常耐性+30%, ピンチ時にバルガス加勢");</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バフ付与 - 全スキル消費コスト-20%, バルガス幻影加勢");</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="D228" t="inlineStr">
+    <row r="266">
+      <c r="D266" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment"));</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("crystal"));</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("magic_stone"));</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,36 +486,36 @@
       </c>
     </row>
     <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>scene4_refusal</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_vs_balgas_victory, ==1)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>narr_1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>（ロビーの喧騒が消え、冷たい風が吹き抜ける。）</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>（ロビーの喧騒が消え、冷たい風が吹き抜ける。）</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>narr_1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>（バルガスはいつになく整った足取りで、あなたの前に立った。）</t>
+          <t>（ロビーの喧騒が消え、冷たい風が吹き抜ける。）</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>（バルガスはいつになく整った足取りで、あなたの前に立った。）</t>
+          <t>（ロビーの喧騒が消え、冷たい風が吹き抜ける。）</t>
         </is>
       </c>
     </row>
@@ -549,89 +549,89 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>（バルガスはいつになく整った足取りで、あなたの前に立った。）</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>（バルガスはいつになく整った足取りで、あなたの前に立った。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>（その手には、ゼクから手に入れたと思わしき、ドクドクと脈打つ紫黒色の薬瓶が握られている。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（その手には、ゼクから手に入れたと思わしき、ドクドクと脈打つ紫黒色の薬瓶が握られている。）</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
+    <row r="12">
+      <c r="B12" t="inlineStr">
         <is>
           <t>scene1_prime</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>scene1_prime</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>……おい、黄金の戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>……おい、黄金の戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>だがな、アスタロト……あのドラゴンの首を獲るには、圧倒的な『暴力』だけじゃ足りねえ。</t>
+          <t>……おい、黄金の戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>だがな、アスタロト……あのドラゴンの首を獲るには、圧倒的な『暴力』だけじゃ足りねえ。</t>
+          <t>……おい、黄金の戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
         </is>
       </c>
     </row>
@@ -665,68 +665,68 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前はただの強いだけの餌だ。</t>
+          <t>だがな、アスタロト……あのドラゴンの首を獲るには、圧倒的な『暴力』だけじゃ足りねえ。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前はただの強いだけの餌だ。</t>
+          <t>だがな、アスタロト……あのドラゴンの首を獲るには、圧倒的な『暴力』だけじゃ足りねえ。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前はただの強いだけの餌だ。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前はただの強いだけの餌だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>（バルガスは一気に薬を煽った。）</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>（バルガスは一気に薬を煽った。）</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
+    <row r="21">
+      <c r="D21" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
         </is>
       </c>
     </row>
@@ -738,46 +738,46 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>（白髪は黒々とした輝きを取り戻し、放たれる闘気だけでアリーナの石壁に亀裂が入った。）</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>（白髪は黒々とした輝きを取り戻し、放たれる闘気だけでアリーナの石壁に亀裂が入った。）</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
+    <row r="24">
+      <c r="D24" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で殺しにいける。</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で殺しにいける。</t>
         </is>
       </c>
     </row>
@@ -789,65 +789,65 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で殺しにいける。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で殺しにいける。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>来い！ 手加減は無しだ！ 俺を殺すつもりで打ってこい！</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>来い！ 手加減は無しだ！ 俺を殺すつもりで打ってこい！</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>scene1_5_flashback</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>scene1_5_flashback</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
+    <row r="29">
+      <c r="D29" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>narr_fb1</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>（——35年前、ティリス世界。）</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>（——35年前、ティリス世界。）</t>
         </is>
       </c>
     </row>
@@ -859,61 +859,61 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>narr_fb2</t>
+          <t>narr_fb1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
+          <t>（——35年前、ティリス世界。）</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
+          <t>（——35年前、ティリス世界。）</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>balgas_fb1</t>
+          <t>narr_fb2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
+          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
+          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="F32" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>narr_fb3</t>
+          <t>balgas_fb1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
+          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
+          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
         </is>
       </c>
     </row>
@@ -925,61 +925,61 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>kain_fb1</t>
+          <t>narr_fb3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
+          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
+          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>balgas_fb2</t>
+          <t>kain_fb1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
+          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
+          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>narr_fb4</t>
+          <t>balgas_fb2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
+          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
+          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
         </is>
       </c>
     </row>
@@ -991,124 +991,124 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>kain_fb2</t>
+          <t>narr_fb4</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
+          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
+          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>balgas_fb3</t>
+          <t>kain_fb2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
+          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
+          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>kain_fb3</t>
+          <t>balgas_fb3</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>……分かりました。俺がしんがりを務めます。</t>
+          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>……分かりました。俺がしんがりを務めます。</t>
+          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>kain_fb3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>……分かりました。俺がしんがりを務めます。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>……分かりました。俺がしんがりを務めます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>balgas_fb4</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>narr_fb5</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
     </row>
@@ -1120,17 +1120,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>kain_fb4</t>
+          <t>narr_fb5</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
+          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
+          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
     </row>
@@ -1142,160 +1142,160 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>narr_fb6</t>
+          <t>kain_fb4</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>narr_fb6</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>balgas_fb5</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>馬鹿野郎……！ お前を置いていけるか……！ お前は俺の……！</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>馬鹿野郎……！ お前を置いていけるか……！ お前は俺の……！</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="D46" t="inlineStr">
+    <row r="47">
+      <c r="D47" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+    <row r="48">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>narr_fb7</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="D48" t="inlineStr">
+    <row r="49">
+      <c r="D49" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+    <row r="50">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>narr_fb8</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>（——回想が終わり、現在に戻る。）</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>（——回想が終わり、現在に戻る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>balgas_fb6</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
         </is>
       </c>
     </row>
@@ -1307,17 +1307,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>balgas_fb7</t>
+          <t>balgas_fb6</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
         </is>
       </c>
     </row>
@@ -1329,65 +1329,65 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
+          <t>balgas_fb7</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>balgas_fb8</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
+    <row r="57">
+      <c r="B57" t="inlineStr">
         <is>
           <t>scene2_lily_prayer</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>scene2_lily_prayer</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
+    <row r="59">
+      <c r="D59" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>（リリィが震える手で水晶を握りしめている。）</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>（リリィが震える手で水晶を握りしめている。）</t>
         </is>
       </c>
     </row>
@@ -1399,75 +1399,75 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（リリィが震える手で水晶を握りしめている。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（リリィが震える手で水晶を握りしめている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="D62" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
+          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
+          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
         </is>
       </c>
     </row>
@@ -1501,87 +1501,87 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
+    <row r="69">
+      <c r="B69" t="inlineStr">
         <is>
           <t>scene3_battle</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>scene3_battle</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
+    <row r="71">
+      <c r="D71" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Balgas_Prime");             var data = SoundManager.current.GetData("BGM/Battle_Balgas_Prime");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Balgas_Prime");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
         </is>
       </c>
     </row>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_10</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
+          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
+          <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
         </is>
       </c>
     </row>
@@ -1615,46 +1615,46 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>（彼の動きは重く、速く、そして無駄がない。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>narr_12</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
+    <row r="75">
+      <c r="D75" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>obs_1</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>「殺せ！ 師匠を殺せ！」</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>「殺せ！ 師匠を殺せ！」</t>
         </is>
       </c>
     </row>
@@ -1666,17 +1666,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>obs_2</t>
+          <t>obs_1</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>「英雄の魂を捧げろ！」</t>
+          <t>「殺せ！ 師匠を殺せ！」</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>「英雄の魂を捧げろ！」</t>
+          <t>「殺せ！ 師匠を殺せ！」</t>
         </is>
       </c>
     </row>
@@ -1688,160 +1688,135 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>obs_3</t>
+          <t>obs_2</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>「屠竜者となる儀式だ！」</t>
+          <t>「英雄の魂を捧げろ！」</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>「屠竜者となる儀式だ！」</t>
+          <t>「英雄の魂を捧げろ！」</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>obs_3</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>「屠竜者となる儀式だ！」</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>「屠竜者となる儀式だ！」</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>lily_voice</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>scene4_refusal</t>
-        </is>
-      </c>
-    </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>scene4_refusal</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_battle,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>scene4_refusal</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>sukutsu_vs_balgas_victory,0</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>obs_void</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
         </is>
       </c>
     </row>
@@ -1853,461 +1828,461 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>obs_void</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="B92" t="inlineStr">
+    <row r="97">
+      <c r="B97" t="inlineStr">
         <is>
           <t>choice4</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>react4_philosophy</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>c4_philosophy</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>react4_rule</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>c4_rule</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>react4_hand</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>c4_hand</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>（無言で手を差し伸べる）</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>（無言で手を差し伸べる）</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>react4_philosophy</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ……。</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ……。</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
+          <t>react4_philosophy</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>c4_philosophy</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>react4_rule</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>c4_rule</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>react4_hand</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>c4_hand</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>（無言で手を差し伸べる）</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>（無言で手を差し伸べる）</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>react4_philosophy</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ……。</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
           <t>introspection</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>react4_rule</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="F100" t="inlineStr">
+    <row r="105">
+      <c r="F105" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>introspection</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>react4_hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>introspection</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>introspection</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>introspect_greed</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>introspection</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>react4_hand</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>introspect_greed</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>introspect_battle</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>introspect_void</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
           <t>introspect_pride</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>if_flag(chitsii.arena.player.motivation, ==3)</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>introspect_greed</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>intro_greed</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>intro_greed2</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
       <c r="F114" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>intro_greed3</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2296,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>introspect_battle</t>
+          <t>introspect_greed</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2308,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>intro_battle</t>
+          <t>intro_greed</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
         </is>
       </c>
     </row>
@@ -2355,17 +2330,17 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>intro_battle2</t>
+          <t>intro_greed2</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2352,17 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>intro_battle3</t>
+          <t>intro_greed3</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2376,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>introspect_void</t>
+          <t>introspect_battle</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2388,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>intro_void</t>
+          <t>intro_battle</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
     </row>
@@ -2435,17 +2410,17 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>intro_void2</t>
+          <t>intro_battle2</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
     </row>
@@ -2457,17 +2432,17 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>intro_void3</t>
+          <t>intro_battle3</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2456,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>introspect_pride</t>
+          <t>introspect_void</t>
         </is>
       </c>
     </row>
@@ -2493,17 +2468,17 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>intro_pride</t>
+          <t>intro_void</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
         </is>
       </c>
     </row>
@@ -2515,17 +2490,17 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>intro_pride2</t>
+          <t>intro_void2</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
     </row>
@@ -2537,17 +2512,17 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>intro_pride3</t>
+          <t>intro_void3</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
     </row>
@@ -2561,159 +2536,179 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>introspect_pride</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>intro_pride</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>intro_pride2</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>intro_pride3</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="B132" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
         <is>
           <t>scene5_bonds</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>scene5_bonds</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="D139" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
     </row>
@@ -2725,95 +2720,55 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="F144" t="inlineStr">
+    <row r="146">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>balgas_9</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
         </is>
       </c>
     </row>
@@ -2825,326 +2780,366 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="F151" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>balgas_9</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="F152" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>narr_20</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+    </row>
+    <row r="155">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="B153" t="inlineStr">
+    <row r="158">
+      <c r="B158" t="inlineStr">
         <is>
           <t>reward_choice</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="B154" t="inlineStr">
+    <row r="159">
+      <c r="B159" t="inlineStr">
         <is>
           <t>reward_sword</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>c_reward_sword</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>バルガスの剣の欠片を頼む</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>バルガスの剣の欠片を頼む</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>c_reward_ether</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>c_reward_mana</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>reward_sword</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>lily_rew1</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment"));</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
+          <t>reward_ether</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>c_reward_ether</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>reward_mana</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>c_reward_mana</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>reward_sword</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>lily_rew1</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>reward_ether</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="F162" t="inlineStr">
+    <row r="167">
+      <c r="F167" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>lily_rew2</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>『エーテルの欠片×1』、記録いたしました。</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>『エーテルの欠片×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="D163" t="inlineStr">
+    <row r="168">
+      <c r="D168" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>EClass.pc.Pick(ThingGen.Create("crystal"));</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="B164" t="inlineStr">
+    <row r="169">
+      <c r="B169" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>reward_mana</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("magic_stone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
@@ -3156,622 +3151,699 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>lily_rew3</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("magic_stone"));</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="D175" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>zek_1</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが見つめている。）</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが見つめている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+    </row>
+    <row r="182">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="I184" t="inlineStr">
         <is>
           <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="F180" t="inlineStr">
+    <row r="185">
+      <c r="F185" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="I185" t="inlineStr">
         <is>
           <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
+    <row r="186">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
         <is>
           <t>narr_22</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
+      <c r="I186" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="B182" t="inlineStr">
+    <row r="187">
+      <c r="B187" t="inlineStr">
         <is>
           <t>final_choice</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="B183" t="inlineStr">
+    <row r="188">
+      <c r="B188" t="inlineStr">
         <is>
           <t>final_thanks</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>c_final_thanks</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
+      <c r="I188" t="inlineStr">
         <is>
           <t>バルガス、ありがとう</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>バルガス、ありがとう</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="B184" t="inlineStr">
+    <row r="189">
+      <c r="B189" t="inlineStr">
         <is>
           <t>final_human</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>c_final_human</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>俺は……まだ人間か？</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>俺は……まだ人間か？</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="B185" t="inlineStr">
+    <row r="190">
+      <c r="B190" t="inlineStr">
         <is>
           <t>final_nod</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>c_final_nod</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="I190" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr">
+      <c r="J190" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>final_thanks</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="D187" t="inlineStr">
+    <row r="192">
+      <c r="D192" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>balgas_r4</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>final_human</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="D193" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="D194" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="F195" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="195">
-      <c r="D195" t="inlineStr">
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>balgas_r4</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>balgas_r5</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>final_nod</t>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="D199" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="D200" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="F201" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="201">
-      <c r="D201" t="inlineStr">
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>balgas_r5</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>balgas_r6</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="D205" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,7</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="D206" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>balgas_r6</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="inlineStr">
+        <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,100</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.balgas_choice,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,8</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="D211" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
+          <t>chitsii.arena.rel.balgas,100</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="D212" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_choice,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>complete_quest(15_vs_balgas)</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="D218" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -2290,6 +2290,21 @@
       <c r="B115" t="inlineStr">
         <is>
           <t>introspect_done</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2129,141 +2129,106 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>introspect_greed</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="inlineStr">
+    </row>
+    <row r="108">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>intro_greed</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>intro_greed2</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>intro_greed3</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>introspect_battle</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==3)</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>introspect_greed</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>intro_greed</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
         </is>
       </c>
     </row>
@@ -2275,17 +2240,17 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>intro_greed2</t>
+          <t>intro_battle</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
     </row>
@@ -2297,53 +2262,53 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>intro_greed3</t>
+          <t>intro_battle2</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="inlineStr">
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>intro_battle3</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
-        </is>
-      </c>
-    </row>
     <row r="117">
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>intro_battle</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>introspect_void</t>
         </is>
       </c>
     </row>
@@ -2355,17 +2320,17 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>intro_battle2</t>
+          <t>intro_void</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
         </is>
       </c>
     </row>
@@ -2377,53 +2342,53 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>intro_battle3</t>
+          <t>intro_void2</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>intro_void3</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
-    </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>intro_void</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>introspect_pride</t>
         </is>
       </c>
     </row>
@@ -2435,17 +2400,17 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>intro_void2</t>
+          <t>intro_pride</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
         </is>
       </c>
     </row>
@@ -2457,538 +2422,528 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>intro_void3</t>
+          <t>intro_pride2</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="inlineStr">
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>intro_pride3</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
-        </is>
-      </c>
-    </row>
     <row r="127">
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>intro_pride</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>intro_pride2</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>scene5_bonds</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>intro_pride3</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>scene5_bonds</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>scene5_bonds</t>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>scene5_bonds</t>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="D134" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="D138" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="D139" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>balgas_9</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>narr_20</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="D145" t="inlineStr">
+        <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="D140" t="inlineStr">
+    <row r="146">
+      <c r="D146" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>balgas_9</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="F147" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>narr_20</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>reward_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>reward_sword</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>c_reward_sword</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>reward_ether</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>c_reward_ether</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>reward_mana</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>c_reward_mana</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>reward_sword</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="F154" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>reward_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>reward_sword</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>c_reward_sword</t>
+          <t>lily_rew1</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>バルガスの剣の欠片を頼む</t>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>バルガスの剣の欠片を頼む</t>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>c_reward_ether</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>reward_mana</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>c_reward_mana</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>reward_sword</t>
+          <t>reward_ether</t>
         </is>
       </c>
     </row>
@@ -3000,17 +2955,17 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>lily_rew1</t>
+          <t>lily_rew2</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+          <t>『エーテルの欠片×1』、記録いたしました。</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+          <t>『エーテルの欠片×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
@@ -3022,7 +2977,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
         </is>
       </c>
     </row>
@@ -3036,7 +2991,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>reward_ether</t>
+          <t>reward_mana</t>
         </is>
       </c>
     </row>
@@ -3048,17 +3003,17 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>lily_rew2</t>
+          <t>lily_rew3</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3025,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
         </is>
       </c>
     </row>
@@ -3084,398 +3039,398 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>reward_mana</t>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="F166" t="inlineStr">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="F167" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>lily_8</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが見つめている。）</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>narr_21</t>
+          <t>zek_1</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="D175" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>narr_22</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>final_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>c_final_human</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>c_final_nod</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="D176" t="inlineStr">
+    <row r="184">
+      <c r="D184" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="D177" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>narr_22</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>final_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" t="inlineStr">
+    <row r="186">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>balgas_r4</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>final_human</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>c_final_human</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>俺は……まだ人間か？</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>俺は……まだ人間か？</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>c_final_nod</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -3487,67 +3442,67 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="F190" t="inlineStr">
+    <row r="192">
+      <c r="F192" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>balgas_r4</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="B191" t="inlineStr">
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>balgas_r5</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>final_human</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
     <row r="194">
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>final_nod</t>
         </is>
       </c>
     </row>
@@ -3559,219 +3514,171 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="F196" t="inlineStr">
+    <row r="198">
+      <c r="F198" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>balgas_r5</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="B197" t="inlineStr">
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>balgas_r6</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
     <row r="200">
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="D201" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>chitsii.arena.player.rank,7</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>balgas_r6</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,100</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_choice,0</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,7</t>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,100</t>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="D207" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="D208" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.balgas_choice,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="D212" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,72 +1725,52 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>scene4_refusal</t>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_battle,2</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>scene4_refusal</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>scene4_refusal</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
     </row>
@@ -1802,24 +1782,39 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
     </row>
@@ -1831,63 +1826,68 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>obs_void</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
+    <row r="89">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -1899,300 +1899,280 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="inlineStr">
+    <row r="93">
+      <c r="F93" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>choice4</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>react4_philosophy</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>c4_philosophy</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>react4_rule</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>c4_rule</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+          <t>choice4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
+          <t>react4_philosophy</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>c4_philosophy</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>react4_rule</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>c4_rule</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
           <t>react4_hand</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>c4_hand</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>（無言で手を差し伸べる）</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>（無言で手を差し伸べる）</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>react4_philosophy</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="F97" t="inlineStr">
+    <row r="99">
+      <c r="F99" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>……ハッ。甘っちょろい野郎だ……。</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>……ハッ。甘っちょろい野郎だ……。</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="B98" t="inlineStr">
+    <row r="100">
+      <c r="B100" t="inlineStr">
         <is>
           <t>introspection</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>react4_rule</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="F100" t="inlineStr">
+    <row r="102">
+      <c r="F102" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
+    <row r="103">
+      <c r="B103" t="inlineStr">
         <is>
           <t>introspection</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>react4_hand</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="F103" t="inlineStr">
+    <row r="105">
+      <c r="F105" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
+    <row r="106">
+      <c r="B106" t="inlineStr">
         <is>
           <t>introspection</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>introspection</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>introspect_greed</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>intro_greed</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>intro_greed2</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
     </row>
@@ -2204,75 +2184,75 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
+          <t>intro_greed</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>intro_greed2</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
           <t>intro_greed3</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
+    <row r="113">
+      <c r="B113" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>introspect_battle</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>intro_battle</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>intro_battle2</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
     </row>
@@ -2284,75 +2264,75 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
+          <t>intro_battle</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>intro_battle2</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
           <t>intro_battle3</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
+    <row r="118">
+      <c r="B118" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>introspect_void</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>intro_void</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>intro_void2</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
     </row>
@@ -2364,75 +2344,75 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
+          <t>intro_void</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>intro_void2</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
           <t>intro_void3</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="B121" t="inlineStr">
+    <row r="123">
+      <c r="B123" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>introspect_pride</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>intro_pride</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>intro_pride2</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
     </row>
@@ -2444,101 +2424,101 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
+          <t>intro_pride</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>intro_pride2</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
           <t>intro_pride3</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>scene5_bonds</t>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>introspect_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
           <t>scene5_bonds</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="D130" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>scene5_bonds</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
     </row>
@@ -2550,41 +2530,61 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
           <t>narr_19</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -2596,31 +2596,31 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="D137" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="D138" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2632,51 +2632,31 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
         </is>
       </c>
     </row>
@@ -2688,63 +2668,83 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>balgas_9</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="F143" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>balgas_9</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
           <t>narr_20</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -2756,346 +2756,326 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="F147" t="inlineStr">
+    <row r="149">
+      <c r="F149" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="F148" t="inlineStr">
+    <row r="150">
+      <c r="F150" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>reward_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>reward_sword</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>c_reward_sword</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>バルガスの剣の欠片を頼む</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>バルガスの剣の欠片を頼む</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>c_reward_ether</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
+          <t>reward_choice</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
+          <t>reward_sword</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>c_reward_sword</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>reward_ether</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>c_reward_ether</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>エーテルの欠片が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
           <t>reward_mana</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>c_reward_mana</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>魔力の結晶を選ぶ</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>魔力の結晶を選ぶ</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>reward_sword</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="F154" t="inlineStr">
+    <row r="156">
+      <c r="F156" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>lily_rew1</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="D155" t="inlineStr">
+    <row r="157">
+      <c r="D157" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
+    <row r="158">
+      <c r="B158" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>reward_ether</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="F158" t="inlineStr">
+    <row r="160">
+      <c r="F160" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>lily_rew2</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>『エーテルの欠片×1』、記録いたしました。</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>『エーテルの欠片×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="D159" t="inlineStr">
+    <row r="161">
+      <c r="D161" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="B160" t="inlineStr">
+    <row r="162">
+      <c r="B162" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>reward_mana</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="F162" t="inlineStr">
+    <row r="164">
+      <c r="F164" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>lily_rew3</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>『魔力の結晶×1』、記録いたしました。</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>『魔力の結晶×1』、記録いたしました。</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="D163" t="inlineStr">
+    <row r="165">
+      <c r="D165" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="B164" t="inlineStr">
+    <row r="166">
+      <c r="B166" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="D166" t="inlineStr">
+    <row r="168">
+      <c r="D168" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
@@ -3107,63 +3087,83 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+          <t>記録完了です。</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+          <t>記録完了です。</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>lily_8</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
           <t>narr_21</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>（影の中から、ゼクが見つめている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
@@ -3175,51 +3175,31 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
     </row>
@@ -3231,158 +3211,178 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>zek_3</t>
+          <t>zek_1</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
           <t>narr_22</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>final_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>final_human</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>c_final_human</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>俺は……まだ人間か？</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>俺は……まだ人間か？</t>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>c_final_human</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
           <t>final_nod</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>c_final_nod</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
+      <c r="I183" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -3394,67 +3394,67 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="F186" t="inlineStr">
+    <row r="188">
+      <c r="F188" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>balgas_r4</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
+      <c r="I188" t="inlineStr">
         <is>
           <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="B187" t="inlineStr">
+    <row r="189">
+      <c r="B189" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>final_human</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -3466,67 +3466,67 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="F192" t="inlineStr">
+    <row r="194">
+      <c r="F194" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>balgas_r5</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="I194" t="inlineStr">
         <is>
           <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="B193" t="inlineStr">
+    <row r="195">
+      <c r="B195" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>final_nod</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -3538,84 +3538,79 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="F198" t="inlineStr">
+    <row r="200">
+      <c r="F200" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>balgas_r6</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
+      <c r="I200" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
+      <c r="J200" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="B199" t="inlineStr">
+    <row r="201">
+      <c r="B201" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,100</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="D203" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>chitsii.arena.player.rank,8</t>
         </is>
       </c>
     </row>
@@ -3627,58 +3622,104 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
+          <t>chitsii.arena.rel.balgas,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
           <t>chitsii.arena.player.balgas_choice,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="D207" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>complete_quest(15_vs_balgas)</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="D208" t="inlineStr">
+    <row r="211">
+      <c r="D211" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,12 +648,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>だがな、アスタロト……あのドラゴンの首を獲るには、圧倒的な『暴力』だけじゃ足りねえ。</t>
+          <t>だがな、それでもアスタロト……あの竜神は、別格なんだ。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>だがな、アスタロト……あのドラゴンの首を獲るには、圧倒的な『暴力』だけじゃ足りねえ。</t>
+          <t>だがな、それでもアスタロト……あの竜神は、別格なんだ。</t>
         </is>
       </c>
     </row>
@@ -665,68 +665,68 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_2_1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前はただの強いだけの餌だ。</t>
+          <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。冗談じゃねえぞ。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前はただの強いだけの餌だ。</t>
+          <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。冗談じゃねえぞ。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前は犠牲になっちまうだけだ。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前は犠牲になっちまうだけだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>（バルガスは一気に薬を煽った。）</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>（バルガスは一気に薬を煽った。）</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
+    <row r="21">
+      <c r="D21" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
         </is>
       </c>
     </row>
@@ -738,46 +738,46 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>（白髪は黒々とした輝きを取り戻し、放たれる闘気だけでアリーナの石壁に亀裂が入った。）</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>（白髪は黒々とした輝きを取り戻し、放たれる闘気だけでアリーナの石壁に亀裂が入った。）</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
+    <row r="24">
+      <c r="D24" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で殺しにいける。</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で殺しにいける。</t>
         </is>
       </c>
     </row>
@@ -789,65 +789,65 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で『殺し』にいける。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で『殺し』にいける。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>来い！ 手加減は無しだ！ 俺を殺すつもりで打ってこい！</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>来い！ 手加減は無しだ！ 俺を殺すつもりで打ってこい！</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>来い！ 手加減は無しだ！ 殺すつもりで打ってこい！</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>来い！ 手加減は無しだ！ 殺すつもりで打ってこい！</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>scene1_5_flashback</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>scene1_5_flashback</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
+    <row r="29">
+      <c r="D29" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>narr_fb1</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>（——35年前、ティリス世界。）</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>（——35年前、ティリス世界。）</t>
         </is>
       </c>
     </row>
@@ -859,61 +859,61 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>narr_fb2</t>
+          <t>narr_fb1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
+          <t>（——35年前、ノースティリス。）</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
+          <t>（——35年前、ノースティリス。）</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>balgas_fb1</t>
+          <t>narr_fb2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
+          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
+          <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="F32" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>narr_fb3</t>
+          <t>balgas_fb1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
+          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
+          <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
         </is>
       </c>
     </row>
@@ -925,61 +925,61 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>kain_fb1</t>
+          <t>narr_fb3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
+          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
+          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>balgas_fb2</t>
+          <t>kain_fb1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
+          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
+          <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>narr_fb4</t>
+          <t>balgas_fb2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
+          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
+          <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
         </is>
       </c>
     </row>
@@ -991,124 +991,124 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>kain_fb2</t>
+          <t>narr_fb4</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
+          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
+          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>balgas_fb3</t>
+          <t>kain_fb2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
+          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>……ハッ、嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
+          <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>kain_fb3</t>
+          <t>balgas_fb3</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>……分かりました。俺がしんがりを務めます。</t>
+          <t>……嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>……分かりました。俺がしんがりを務めます。</t>
+          <t>……嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>kain_fb3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>……分かりました。俺がしんがりを務めます。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>……分かりました。俺がしんがりを務めます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>balgas_fb4</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>narr_fb5</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
     </row>
@@ -1120,17 +1120,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>kain_fb4</t>
+          <t>narr_fb5</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
+          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
+          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
     </row>
@@ -1142,160 +1142,160 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>narr_fb6</t>
+          <t>kain_fb4</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+          <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>narr_fb6</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>balgas_fb5</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>馬鹿野郎……！ お前を置いていけるか……！ お前は俺の……！</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>馬鹿野郎……！ お前を置いていけるか……！ お前は俺の……！</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">馬鹿野郎……！ お前を置いていけるか……！ </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">馬鹿野郎……！ お前を置いていけるか……！ </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+    <row r="48">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>narr_fb7</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="D48" t="inlineStr">
+    <row r="49">
+      <c r="D49" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+    <row r="50">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>narr_fb8</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>（——回想が終わり、現在に戻る。）</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>（——回想が終わり、現在に戻る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>balgas_fb6</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
         </is>
       </c>
     </row>
@@ -1307,17 +1307,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>balgas_fb7</t>
+          <t>balgas_fb6</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
         </is>
       </c>
     </row>
@@ -1329,65 +1329,65 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
+          <t>balgas_fb7</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>balgas_fb8</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
+    <row r="57">
+      <c r="B57" t="inlineStr">
         <is>
           <t>scene2_lily_prayer</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>scene2_lily_prayer</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
+    <row r="59">
+      <c r="D59" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>（リリィが震える手で水晶を握りしめている。）</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>（リリィが震える手で水晶を握りしめている。）</t>
         </is>
       </c>
     </row>
@@ -1399,75 +1399,75 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（リリィが震える手で水晶を握りしめている。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（リリィが震える手で水晶を握りしめている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="D62" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>……馬鹿な人。その薬は、命の火花を一度に使い果たす禁忌の炎……！</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
+          <t>……馬鹿な人。それは、命の火花を浪費する禁忌の薬……！</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>お客様、お願いです。彼を止めて……！ でも、彼を殺さないで……。</t>
+          <t>……馬鹿な人。それは、命の火花を浪費する禁忌の薬……！</t>
         </is>
       </c>
     </row>
@@ -1501,39 +1501,39 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+          <t>お願いです。彼を止めて……！</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
+          <t>お願いです。彼を止めて……！</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
+          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>（リリィの頬を涙が伝う。サキュバスが泣いている。あなたは初めて見た。）</t>
+          <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
         </is>
       </c>
     </row>
@@ -1620,12 +1620,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
+          <t>（教えてもらった技が、今度は殺意を持ってあなたを襲う。）</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>（かつて教えてもらった技の数々が、今度は殺意を持ってあなたを襲う。）</t>
+          <t>（教えてもらった技が、今度は殺意を持ってあなたを襲う。）</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>「殺せ！ 師匠を殺せ！」</t>
+          <t>観客「...殺せ！ ...師匠を殺せ！」</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>「殺せ！ 師匠を殺せ！」</t>
+          <t>観客「...殺せ！ ...師匠を殺せ！」</t>
         </is>
       </c>
     </row>
@@ -1671,106 +1671,106 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>「英雄の魂を捧げろ！」</t>
+          <t>観客「...魂を捧げろ！」</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>「英雄の魂を捧げろ！」</t>
+          <t>観客「...魂を捧げろ！」</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>obs_3</t>
+          <t>lily_voice</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>「屠竜者となる儀式だ！」</t>
+          <t>（リリィの小さな懇願の声が、あなたの耳に届く。「お願い……殺さないで……」）</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>「屠竜者となる儀式だ！」</t>
+          <t>（リリィの小さな懇願の声が、あなたの耳に届く。「お願い……殺さないで……」）</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>lily_voice</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>（リリィの懇願の声が、闘技場に響く……「お願い……殺さないで……」）</t>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_battle,2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="D79" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sukutsu_quest_battle,2</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>scene4_refusal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>scene4_refusal</t>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>（膝をつき、肩で息をするバルガス。）</t>
         </is>
       </c>
     </row>
@@ -1782,17 +1782,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>（膝をつき、肩で息をするバルガス。）</t>
+          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
     </row>
@@ -1804,46 +1804,46 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
+          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>obs_void</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
         </is>
       </c>
     </row>
@@ -1855,111 +1855,116 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>obs_void</t>
+          <t>narr_16</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
+          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="F92" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>choice4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>choice4</t>
+          <t>react4_philosophy</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>c4_philosophy</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>俺の哲学には、師匠を殺すという項目はない</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>react4_philosophy</t>
+          <t>react4_rule</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -1969,210 +1974,205 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>c4_philosophy</t>
+          <t>c4_rule</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>俺の哲学には、師匠を殺すという項目はない</t>
+          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
+          <t>react4_hand</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>c4_hand</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>（無言で手を差し伸べる）</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>（無言で手を差し伸べる）</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>react4_philosophy</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ……。</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>react4_rule</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>c4_rule</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>introspection</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>react4_hand</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>c4_hand</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>（無言で手を差し伸べる）</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>（無言で手を差し伸べる）</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>react4_philosophy</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="F99" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="F104" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ……。</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>……ハッ。甘っちょろい野郎だ……。</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
         <is>
           <t>introspection</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>react4_rule</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>introspection</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>react4_hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>introspection</t>
-        </is>
-      </c>
-    </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>introspect_greed</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>introspect_greed</t>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>intro_greed</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
         </is>
       </c>
     </row>
@@ -2184,17 +2184,17 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>intro_greed</t>
+          <t>intro_greed2</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
+          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
     </row>
@@ -2206,53 +2206,53 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>intro_greed2</t>
+          <t>intro_greed3</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
+          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>intro_greed3</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>introspect_battle</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>intro_battle</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
     </row>
@@ -2264,17 +2264,17 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>intro_battle</t>
+          <t>intro_battle2</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
+          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
     </row>
@@ -2286,53 +2286,53 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>intro_battle2</t>
+          <t>intro_battle3</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
+          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>intro_battle3</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>introspect_void</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>intro_void</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>intro_void</t>
+          <t>intro_void2</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
+          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
     </row>
@@ -2366,53 +2366,53 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>intro_void2</t>
+          <t>intro_void3</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
+          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>intro_void3</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>introspect_pride</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>intro_pride</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
         </is>
       </c>
     </row>
@@ -2424,17 +2424,17 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>intro_pride</t>
+          <t>intro_pride2</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
+          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
     </row>
@@ -2446,79 +2446,79 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>intro_pride2</t>
+          <t>intro_pride3</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
+          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>intro_pride3</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="inlineStr">
+      <c r="A128" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>scene5_bonds</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="inlineStr">
+      <c r="A130" t="inlineStr">
         <is>
           <t>scene5_bonds</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>scene5_bonds</t>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>narr_17</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
         </is>
       </c>
     </row>
@@ -2530,17 +2530,17 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>narr_18</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
+          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
     </row>
@@ -2552,63 +2552,53 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>narr_18</t>
+          <t>narr_19</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
+          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="D136" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="D137" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2620,43 +2610,53 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="D139" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="D140" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="F141" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="141">
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
         </is>
       </c>
     </row>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>balgas_8</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
+          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
         </is>
       </c>
     </row>
@@ -2690,97 +2690,97 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>balgas_8</t>
+          <t>balgas_9</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="F144" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>balgas_9</t>
+          <t>narr_20</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="D146" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="F148" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
     </row>
@@ -2792,53 +2792,58 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
+          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
+          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>reward_choice</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>reward_choice</t>
+          <t>reward_sword</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>c_reward_sword</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>バルガスの剣の欠片を頼む</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>reward_sword</t>
+          <t>reward_ether</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -2848,234 +2853,229 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>c_reward_sword</t>
+          <t>c_reward_ether</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>バルガスの剣の欠片を頼む</t>
+          <t>エーテルの欠片が欲しい</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>バルガスの剣の欠片を頼む</t>
+          <t>エーテルの欠片が欲しい</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
+          <t>reward_mana</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>c_reward_mana</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>魔力の結晶を選ぶ</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>reward_sword</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>lily_rew1</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>reward_ether</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>c_reward_ether</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" t="inlineStr">
+    </row>
+    <row r="159">
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>lily_rew2</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>『エーテルの欠片×1』、記録いたしました。</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>『エーテルの欠片×1』、記録いたしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>reward_mana</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>c_reward_mana</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>reward_sword</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="F156" t="inlineStr">
+    </row>
+    <row r="163">
+      <c r="F163" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>lily_rew1</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="D157" t="inlineStr">
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>lily_rew3</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>『魔力の結晶×1』、記録いたしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" t="inlineStr">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
         <is>
           <t>reward_end</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="F160" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>reward_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="F168" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
         </is>
       </c>
     </row>
@@ -3087,17 +3087,17 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
@@ -3109,97 +3109,97 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>narr_21</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+          <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+          <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="D173" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="D174" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="F175" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-    </row>
-    <row r="175">
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
     </row>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>zek_1</t>
+          <t>zek_2</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
     </row>
@@ -3233,75 +3233,80 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>zek_2</t>
+          <t>zek_3</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>zek_3</t>
+          <t>narr_22</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+          <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
+          <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>narr_22</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>final_thanks</t>
+          <t>final_human</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -3311,24 +3316,24 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>c_final_thanks</t>
+          <t>c_final_human</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>バルガス、ありがとう</t>
+          <t>俺は……まだ人間か？</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>バルガス、ありがとう</t>
+          <t>俺は……まだ人間か？</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>final_human</t>
+          <t>final_nod</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -3338,267 +3343,252 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>c_final_human</t>
+          <t>c_final_nod</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>俺は……まだ人間か？</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>俺は……まだ人間か？</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>c_final_nod</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="D185" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="D186" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="F187" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="187">
-      <c r="D187" t="inlineStr">
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>balgas_r4</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>balgas_r4</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>final_human</t>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="D191" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="D192" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="F193" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="193">
-      <c r="D193" t="inlineStr">
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>balgas_r5</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>balgas_r5</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>final_nod</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="D197" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="D198" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="F199" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="199">
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>balgas_r6</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>balgas_r6</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="inlineStr">
+      <c r="A201" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,8</t>
         </is>
       </c>
     </row>
@@ -3610,116 +3600,104 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,8</t>
+          <t>chitsii.arena.rel.balgas,100</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="D204" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.balgas,100</t>
+          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="D205" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>chitsii.arena.player.balgas_choice,0</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="D206" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.balgas_choice,0</t>
+          <t>complete_quest(15_vs_balgas)</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>complete_quest(15_vs_balgas)</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="H208" t="inlineStr">
         <is>
-          <t>sys_title</t>
+          <t>sys_buff</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="D210" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="D211" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K210"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3600,19 +3600,19 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.balgas,100</t>
+          <t>chitsii.arena.player.balgas_choice,0</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="D204" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +30)</t>
+          <t>complete_quest(15_vs_balgas)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -3622,82 +3622,53 @@
       </c>
     </row>
     <row r="205">
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.balgas_choice,0</t>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>complete_quest(15_vs_balgas)</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="D210" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,12 +670,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。冗談じゃねえぞ。</t>
+          <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。......冗談なんかじゃねえぞ。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。冗談じゃねえぞ。</t>
+          <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。......冗談なんかじゃねえぞ。</t>
         </is>
       </c>
     </row>
@@ -692,12 +692,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前は犠牲になっちまうだけだ。</t>
+          <t>俺を......『全盛期の俺』を越えてみせろ。それができなきゃ、このさきお前は犠牲になっちまう。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>俺を、この『全盛期の俺』を越えてみせろ。それができなきゃ、お前は犠牲になっちまうだけだ。</t>
+          <t>俺を......『全盛期の俺』を越えてみせろ。それができなきゃ、このさきお前は犠牲になっちまう。</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>（——35年前、ノースティリス。）</t>
+          <t>（ーー35年前、ノースティリス。）</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>（——35年前、ノースティリス。）</t>
+          <t>（ーー35年前、ノースティリス。）</t>
         </is>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
+          <t>（10歳の孤児ーー後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>（10歳の孤児——後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
+          <t>（10歳の孤児ーー後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
+          <t>（ーー18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>（——18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
+          <t>（ーー18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
+          <t>（ーー遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>（——遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
+          <t>（ーー遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>（——回想が終わり、現在に戻る。）</t>
+          <t>（ーー回想が終わり、現在に戻る。）</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>（——回想が終わり、現在に戻る。）</t>
+          <t>（ーー回想が終わり、現在に戻る。）</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1312,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
+          <t>……俺はあの時、カインを救えなかった。</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>……俺はあの時、カインを救えなかった。あいつの魂は今も、このアリーナのどこかで彷徨ってやがる。</t>
+          <t>……俺はあの時、カインを救えなかった。</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
+          <t>（リリィが駆け寄り、バルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>（リリィが駆け寄り、泣きながらバルガスに回復魔法を注ぎ込む。）</t>
+          <t>（リリィが駆け寄り、バルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
     </row>
@@ -2690,97 +2690,97 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>balgas_9</t>
+          <t>balgas_8b</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>聞け……グランドマスターは……お前を特別扱いしている。</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+          <t>聞け……グランドマスターは……お前を特別扱いしている。</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="F144" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>narr_20</t>
+          <t>balgas_8c</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+          <t>なぜあいつがお前を育てようとしているのか……俺には分からねえ。だが、いい予感はしねえ。</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>（リリィは台帳を開き、涙を拭きながら何かを書き込む。）</t>
+          <t>なぜあいつがお前を育てようとしているのか……俺には分からねえ。だが、いい予感はしねえ。</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>balgas_9</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="D146" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
     </row>
@@ -2792,112 +2792,87 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>……ありがとう。本当に、ありがとうございます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>観客からの報酬として、小さなコイン50枚とプラチナコイン30枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>reward_choice</t>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>観客からの報酬は、小さなコイン50枚とプラチナコイン30枚です。</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>観客からの報酬は、小さなコイン50枚とプラチナコイン30枚です。</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>reward_sword</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>c_reward_sword</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>バルガスの剣の欠片を頼む</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>バルガスの剣の欠片を頼む</t>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>c_reward_ether</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>エーテルの欠片が欲しい</t>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>reward_end</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
-        </is>
-      </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>c_reward_mana</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>魔力の結晶を選ぶ</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>reward_sword</t>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>記録完了です。</t>
         </is>
       </c>
     </row>
@@ -2909,239 +2884,304 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>lily_rew1</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>『バルガスの剣の欠片×1』、記録いたしました。……彼の魂が宿る、大切な欠片ですね。</t>
+          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_balgas_sword"));</t>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>lily_8</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが見つめている。）</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>reward_ether</t>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>『エーテルの欠片×1』、記録いたしました。</t>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="D160" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_ether"));</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>reward_mana</t>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="F163" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>lily_rew3</t>
+          <t>zek_3</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>『魔力の結晶×1』、記録いたしました。</t>
+          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("gem_mana"));</t>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>narr_22</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>reward_end</t>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>reward_end</t>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>バルガス、ありがとう</t>
         </is>
       </c>
     </row>
     <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>c_final_human</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>俺は……まだ人間か？</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>final_nod</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>c_final_nod</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>記録完了です。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが見つめている。）</t>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -3153,214 +3193,139 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>balgas_r4</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>final_human</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="D173" t="inlineStr">
+    <row r="177">
+      <c r="D177" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="D174" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="D178" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>……クク。システムの命令を拒絶しましたか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>narr_22</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>（ゼクが影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
     <row r="179">
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>final_choice</t>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>balgas_r5</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>バルガス、ありがとう</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>final_human</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>c_final_human</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>俺は……まだ人間か？</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>俺は……まだ人間か？</t>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>final_nod</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>c_final_nod</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
@@ -3372,303 +3337,135 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>balgas_r6</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
+        </is>
+      </c>
     </row>
     <row r="186">
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>balgas_r4</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,8</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>final_human</t>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_killed,0</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="D190" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>complete_quest(15_vs_balgas)</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>balgas_r5</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>final_nod</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>balgas_r6</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.balgas_choice,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>complete_quest(15_vs_balgas)</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="D208" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_vs_balgas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,78 +491,78 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が消え、冷たい風が吹き抜ける。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が消え、冷たい風が吹き抜ける。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>（バルガスはいつになく整った足取りで、あなたの前に立った。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>（バルガスはいつになく整った足取りで、あなたの前に立った。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>（その手には、ゼクから手に入れたと思わしき、ドクドクと脈打つ紫黒色の薬瓶が握られている。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>（その手には、ゼクから手に入れたと思わしき、ドクドクと脈打つ紫黒色の薬瓶が握られている。）</t>
         </is>
@@ -578,248 +583,248 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>……おい、黄金の戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……おい、黄金の戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
+          <t>……おい、戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>……おい、戦鬼。お前はもう、俺の手の届かねえ高みへ行こうとしてやがる。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>だがな、それでもアスタロト……あの竜神は、別格なんだ。</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>だがな、それでもアスタロト……あの竜神は、別格なんだ。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>balgas_2_1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。......冗談なんかじゃねえぞ。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>だからこそ、ここで俺が試金石になってやる。おまえを倒すために、対戦させてもらう。......冗談なんかじゃねえぞ。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>俺を......『全盛期の俺』を越えてみせろ。それができなきゃ、このさきお前は犠牲になっちまう。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>俺を......『全盛期の俺』を越えてみせろ。それができなきゃ、このさきお前は犠牲になっちまう。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>（バルガスは一気に薬を煽った。）</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>（バルガスは一気に薬を煽った。）</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>（瞬間、彼の全身を覆っていた古い傷跡が消え、萎みかけていた筋肉が鋼のように膨れ上がる。）</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>（白髪は黒々とした輝きを取り戻し、放たれる闘気だけでアリーナの石壁に亀裂が入った。）</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>（白髪は黒々とした輝きを取り戻し、放たれる闘気だけでアリーナの石壁に亀裂が入った。）</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で『殺し』にいける。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>……あぁ、いい気分だ。これなら、一度くらいはお前を本気で『殺し』にいける。</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>来い！ 手加減は無しだ！ 殺すつもりで打ってこい！</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>来い！ 手加減は無しだ！ 殺すつもりで打ってこい！</t>
         </is>
@@ -840,526 +845,526 @@
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_1");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_1");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_1");             }</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>narr_fb1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>（ーー35年前、ノースティリス。）</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>（ーー35年前、ノースティリス。）</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>narr_fb2</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>（若き日のバルガスが、傭兵団「鉄血団」を率いていた頃の記憶。）</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>balgas_fb1</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>おい、ガキ。俺の懐に手を突っ込もうってのか？</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>narr_fb3</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>（10歳の孤児ーー後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>（10歳の孤児ーー後のカインは、バルガスの財布を盗もうとして捕まった。痩せこけた体、汚れた衣服、しかしその目だけは諦めていなかった。）</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>kain_fb1</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>……殺すなら殺せよ。どうせ、誰も俺のことなんか……</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>balgas_fb2</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>……盗むしかなかったんだろう。なら、正しく戦う術を教えてやる。明日から俺の部下だ。飯は食わせてやる。その代わり、死ぬほど鍛えてやるからな。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>narr_fb4</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>（ーー18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>（ーー18年後。カインは鉄血団の副団長となった。バルガスの右腕として、誰よりも信頼された戦士。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>kain_fb2</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>団長、次の依頼……『禁断の遺跡』の調査だそうです。報酬は破格ですが、嫌な予感がします。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>balgas_fb3</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>……嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>……嫌な予感ってのは当たるもんだ。だが、団員たちの冬越しの金がいる。行くしかねえだろ。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>kain_fb3</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>……分かりました。俺がしんがりを務めます。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>……分かりました。俺がしんがりを務めます。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>balgas_fb4</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>馬鹿野郎。お前は俺の後継者だ。死ぬんじゃねえぞ。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>narr_fb5</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>（ーー遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>（ーー遺跡の奥で、次元の裂け目が開いた。団員たちが次々と狭間に引きずり込まれていく。）</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>kain_fb4</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>団長……俺を、置いていけ……！ でないと、あんたまで……！</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>narr_fb6</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>（カインは罠で重傷を負い、動けなかった。バルガスはカインを背負い、狭間の中を彷徨った。）</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>balgas_fb5</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t xml:space="preserve">馬鹿野郎……！ お前を置いていけるか……！ </t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t xml:space="preserve">馬鹿野郎……！ お前を置いていけるか……！ </t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>narr_fb7</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>（しかし、カインの体は限界を迎えていた。アスタロトに「拾われた」時、カインは既に息絶えていた。）</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>narr_fb8</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>（ーー回想が終わり、現在に戻る。）</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>（ーー回想が終わり、現在に戻る。）</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>balgas_fb6</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>……俺はあの時、カインを救えなかった。</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>……俺はあの時、カインを救えなかった。</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>balgas_fb7</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>だがな、お前は違う。お前は帰れるんだ。イルヴァに、生きている世界に。……だからこそ、俺は本気でお前を試す。中途半端な強さじゃ、アスタロトには勝てねえ。</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>balgas_fb8</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>カインに教えてやれなかったことを、今度こそお前に叩き込んでやる……！</t>
         </is>
@@ -1380,158 +1385,158 @@
       </c>
     </row>
     <row r="59">
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>（リリィが震える手で水晶を握りしめている。）</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>（リリィが震える手で水晶を握りしめている。）</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>（その瞳には、事務的な冷徹さは微塵も残っていない。）</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>……馬鹿な人。それは、命の火花を浪費する禁忌の薬……！</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>……馬鹿な人。それは、命の火花を浪費する禁忌の薬……！</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>お願いです。彼を止めて……！</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>お願いです。彼を止めて……！</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>もし彼が死んだら、このアリーナにはもう、私を叱ってくれる人は誰もいなくなってしまうわ……！</t>
         </is>
@@ -1552,182 +1557,182 @@
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Balgas_Prime");             var data = SoundManager.current.GetData("BGM/Battle_Balgas_Prime");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Balgas_Prime");             }</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>narr_10</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>（若き日の姿を取り戻した「伝説の戦士バルガス」との一騎打ち。）</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>（彼の動きは重く、速く、そして無駄がない。）</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>（彼の動きは重く、速く、そして無駄がない。）</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>narr_12</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>（教えてもらった技が、今度は殺意を持ってあなたを襲う。）</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>（教えてもらった技が、今度は殺意を持ってあなたを襲う。）</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>obs_1</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>観客「...殺せ！ ...師匠を殺せ！」</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>観客「...殺せ！ ...師匠を殺せ！」</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>obs_2</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>観客「...魂を捧げろ！」</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>観客「...魂を捧げろ！」</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>lily_voice</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>（リリィの小さな懇願の声が、あなたの耳に届く。「お願い……殺さないで……」）</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>（リリィの小さな懇願の声が、あなたの耳に届く。「お願い……殺さないで……」）</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>sukutsu_quest_battle,2</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -1741,187 +1746,187 @@
       </c>
     </row>
     <row r="82">
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow_2");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow_2");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow_2");             }</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>narr_13</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>（膝をつき、肩で息をするバルガス。）</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>（膝をつき、肩で息をするバルガス。）</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>（全盛期の輝きが失われ、急速に元の老いた姿へと戻っていく。）</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>（上空からは、観客たちの残酷な「処刑」を促す喝采が響き渡る。）</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>obs_void</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>「……殺セ。英雄ノ魂ヲ捧ゲ、真ノ『屠竜者』ト成レ……。」</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>（あなたは剣を引き、バルガスの喉元に突きつけた刃を下ろす。）</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>……な、何をしてやがる。……刺せ。それがアリーナの、戦士のケジメだろうが……！</t>
         </is>
@@ -1940,22 +1945,22 @@
           <t>react4_philosophy</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>c4_philosophy</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>俺の哲学には、師匠を殺すという項目はない</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>俺の哲学には、師匠を殺すという項目はない</t>
         </is>
@@ -1967,22 +1972,22 @@
           <t>react4_rule</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>c4_rule</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>アリーナのルールに従うつもりはない。俺がルールだ</t>
         </is>
@@ -1994,22 +1999,22 @@
           <t>react4_hand</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>c4_hand</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>（無言で手を差し伸べる）</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>（無言で手を差し伸べる）</t>
         </is>
@@ -2023,22 +2028,22 @@
       </c>
     </row>
     <row r="98">
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>……ハッ。甘っちょろい野郎だ……。</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>……ハッ。甘っちょろい野郎だ……。</t>
         </is>
@@ -2059,22 +2064,22 @@
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>……傲慢な野郎だ。……だが、その傲慢が、俺が求めていた強さなのかもしれねえな……。</t>
         </is>
@@ -2095,22 +2100,22 @@
       </c>
     </row>
     <row r="104">
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>……無口な野郎だ。……だが、その手は……温かいな……。</t>
         </is>
@@ -2131,17 +2136,17 @@
       </c>
     </row>
     <row r="107">
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -2155,66 +2160,66 @@
       </c>
     </row>
     <row r="109">
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>intro_greed</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>（あの時、俺は「富と名声」のためにこのアリーナに来た。）</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>intro_greed2</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>（だが今、俺の手にあるのは金でも権力でもなく……この老いた戦士の命だ。）</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>intro_greed3</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>（こんなもの、何の得にもならない。……それでも、手放せないんだ。）</t>
         </is>
@@ -2235,66 +2240,66 @@
       </c>
     </row>
     <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>intro_battle</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>（あの時、俺は「強い奴と戦いたい」とだけ思っていた。）</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>intro_battle2</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>（目の前の敵を倒し、次の敵へ。それだけでよかった。）</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>intro_battle3</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>（……だが、バルガスを殺すことは『勝利』じゃない。ただの『喪失』だ。俺は、そんなことのために剣を振ってきたんじゃない。）</t>
         </is>
@@ -2315,66 +2320,66 @@
       </c>
     </row>
     <row r="119">
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>intro_void</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>（あの時、俺には帰る場所がなかった。どこで死のうと同じだと思っていた。）</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>intro_void2</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>（……だが、今は違う。バルガスがいて、リリィがいて……）</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>intro_void3</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>（ここには、俺を待っている奴らがいる。もう、虚無に逃げることはできない。）</t>
         </is>
@@ -2395,66 +2400,66 @@
       </c>
     </row>
     <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>intro_pride</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>（あの時、俺は「このアリーナも、ドラゴンも支配する」と豪語した。）</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>intro_pride2</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>（……だが、支配とは何だ？ 命令に従わせることか？ 恐怖で屈服させることか？）</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>intro_pride3</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>（違う。本当の強さは……弱った者を踏みつけないことだ。バルガスがそれを教えてくれた。）</t>
         </is>
@@ -2489,340 +2494,340 @@
       </c>
     </row>
     <row r="131">
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>（あなたがバルガスの手を取り、立ち上がらせる。）</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>narr_18</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>（その瞬間、アリーナ全体を包んでいた不気味な魔力が霧散し、観客たちの声が落胆の溜息へと変わる。）</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>narr_19</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>（リリィが駆け寄り、バルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>（リリィが駆け寄り、バルガスに回復魔法を注ぎ込む。）</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>……ハッ。甘っちょろい野郎だ。……だが、その甘さが、俺がカインに教えてやれなかった『本物の強さ』なのかもしれねえな。</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>balgas_8</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>……負けたよ。今日からお前がランクS『屠竜者（Dragon Slayer）』だ。</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>balgas_8b</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>聞け……グランドマスターは……お前を特別扱いしている。</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>聞け……グランドマスターは……お前を特別扱いしている。</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>balgas_8c</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>なぜあいつがお前を育てようとしているのか……俺には分からねえ。だが、いい予感はしねえ。</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>なぜあいつがお前を育てようとしているのか……俺には分からねえ。だが、いい予感はしねえ。</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>balgas_9</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>俺はもう引退だ。これからは、ただの酔いどれの『隠居』として、お前の凱旋をここで待たせてもらうぜ。</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>……ありがとう。本当に、ありがとうございます。</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>観客からの報酬は、小さなコイン50枚とプラチナコイン30枚です。</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>観客からの報酬は、小さなコイン50枚とプラチナコイン30枚です。</t>
         </is>
@@ -2843,224 +2848,224 @@
       </c>
     </row>
     <row r="153">
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>for(int i=0; i&lt;50; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>記録完了です。</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>記録完了です。</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>……それと、今回の戦いで、あなたは『理を拒む者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>lily_8</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>アリーナの命令を拒絶し、師匠を生かす……ふふ、あなたは本当に、システムの『バグ』ですね。</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>narr_21</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>（影の中から、ゼクが見つめている。）</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>……クク。システムの命令を拒絶しましたか。</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>面白い。実に面白い。あなたは『黄金』を超え、ついにこの箱庭の『バグ』として完成した。</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>さあ、アスタロトはすぐそこです。……あなたのその『慈悲』が、あの孤独な竜に届くのかどうか、見せてもらいましょう。</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>narr_22</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>（ゼクが影の中へと消えていく。）</t>
         </is>
@@ -3079,22 +3084,22 @@
           <t>final_thanks</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>c_final_thanks</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>バルガス、ありがとう</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>バルガス、ありがとう</t>
         </is>
@@ -3106,22 +3111,22 @@
           <t>final_human</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>c_final_human</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>俺は……まだ人間か？</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>俺は……まだ人間か？</t>
         </is>
@@ -3133,22 +3138,22 @@
           <t>final_nod</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>c_final_nod</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -3162,58 +3167,58 @@
       </c>
     </row>
     <row r="170">
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="I173" t="inlineStr">
         <is>
           <t>balgas_r4</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr">
+      <c r="K173" t="inlineStr">
         <is>
           <t>……ハッ、礼はいらねえ。生き残って、アスタロトをぶっ倒せ。</t>
         </is>
@@ -3234,58 +3239,58 @@
       </c>
     </row>
     <row r="176">
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>balgas_r5</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>……ああ。少なくとも、まだ仲間を守れるだけの心がある。それが証拠だ。</t>
         </is>
@@ -3306,58 +3311,58 @@
       </c>
     </row>
     <row r="182">
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="I185" t="inlineStr">
         <is>
           <t>balgas_r6</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr">
+      <c r="K185" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。俺は、ここで待ってるぜ。</t>
         </is>
@@ -3378,94 +3383,94 @@
       </c>
     </row>
     <row r="188">
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>chitsii.arena.player.rank,8</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>chitsii.arena.player.balgas_killed,0</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>complete_quest(15_vs_balgas)</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="H191" t="inlineStr">
+      <c r="I191" t="inlineStr">
         <is>
           <t>sys_title</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
+      <c r="K191" t="inlineStr">
         <is>
           <t>【システム】称号『理を拒む者（System Breaker）』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>sys_buff</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>【システム】『戦鬼の証』を獲得しました。筋力+5、耐久+5、各種耐性+5 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.GrantVsBalgasBonus();</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>end</t>
         </is>
